--- a/DB정리자료/PG(중개자)/PG DB 설명서.xlsx
+++ b/DB정리자료/PG(중개자)/PG DB 설명서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tndyd\Documents\GitHub\project_3\DB정리자료\PG(중개자)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F6896-DD68-449F-8274-07E3F92E35C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A882C013-6C85-4EB5-9C73-2757268FF7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73D43B7B-BA75-4445-9054-FAA95DBB6B72}"/>
   </bookViews>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAYMENT_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은행 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,9 @@
   <si>
     <t>인증 코드가 만료되는 시각. 이 시각이 지나면 인증을 할 수 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_OR_ACCOUNT_NUMBER</t>
   </si>
 </sst>
 </file>
@@ -583,12 +582,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,6 +589,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,14 +922,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFA07A6-0D31-461F-9BA1-74B6483B0E61}">
   <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.25" style="1" bestFit="1" customWidth="1"/>
@@ -947,29 +946,29 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -996,7 +995,7 @@
     </row>
     <row r="5" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1005,7 +1004,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>17</v>
@@ -1016,7 +1015,7 @@
     </row>
     <row r="6" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -1025,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,29 +1052,29 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -1102,16 +1101,16 @@
     </row>
     <row r="12" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>17</v>
@@ -1121,16 +1120,16 @@
     </row>
     <row r="13" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,12 +1164,12 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1189,10 +1188,10 @@
       <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
@@ -1295,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1329,23 +1328,23 @@
       <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="10"/>
+      <c r="H30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>16</v>
@@ -1368,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>17</v>
@@ -1378,30 +1377,30 @@
     </row>
     <row r="33" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1412,10 +1411,10 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1429,12 +1428,12 @@
         <v>21</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
@@ -1443,21 +1442,21 @@
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1466,22 +1465,22 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1500,23 +1499,23 @@
       <c r="G43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="10"/>
+      <c r="H43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>16</v>
@@ -1539,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1559,16 +1558,16 @@
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>34</v>
@@ -1585,63 +1584,63 @@
         <v>21</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
@@ -1673,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -1687,20 +1686,20 @@
       <c r="I54"/>
     </row>
     <row r="55" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
       <c r="F55"/>
       <c r="G55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
@@ -1734,10 +1733,10 @@
         <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="14" t="s">
@@ -1748,16 +1747,16 @@
     </row>
     <row r="58" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -1766,16 +1765,16 @@
     </row>
     <row r="59" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -1934,11 +1933,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B42:E42"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="G5:I5"/>
@@ -1951,6 +1945,11 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
